--- a/factor_backtest/factors_tested.xlsx
+++ b/factor_backtest/factors_tested.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\factor_backtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56A8E42-62F9-4119-A664-04F2AD794A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E467D32F-26C8-447D-8688-FB4E03EE5B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4116" yWindow="2136" windowWidth="11484" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>

--- a/factor_backtest/factors_tested.xlsx
+++ b/factor_backtest/factors_tested.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\factor_backtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E467D32F-26C8-447D-8688-FB4E03EE5B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F3BE34-42CB-4D34-B2EF-478CDD1BE4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>pe_residual</t>
   </si>
@@ -39,21 +39,12 @@
     <t>pe_residual_ols_3</t>
   </si>
   <si>
-    <t>first_report_dur1</t>
-  </si>
-  <si>
     <t>first_report_dur2</t>
   </si>
   <si>
     <t>first_report_dur3</t>
   </si>
   <si>
-    <t>first_report_dur3_noupdown</t>
-  </si>
-  <si>
-    <t>first_report_dur3_withupdown</t>
-  </si>
-  <si>
     <t>first_report_dur3_updown</t>
   </si>
   <si>
@@ -125,6 +116,61 @@
   </si>
   <si>
     <t>IF_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_BEGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除当天涨跌停的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除当天一字涨跌停的（收盘涨停，首次研报后仍有可能买到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次研报（机构关注小于5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次研报后持仓2日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日换手率直接平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日自由换手率平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超预期（去除当日所有解释变量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_dur3_up</t>
+  </si>
+  <si>
+    <t>first_report_dur3_up_open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,13 +214,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -185,6 +253,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C4F02C-B26D-4BE0-B213-6441F80F7C61}" name="表1" displayName="表1" ref="A1:F1048576" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="A1:F1048576" xr:uid="{33C4F02C-B26D-4BE0-B213-6441F80F7C61}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{86BD30F1-8FE8-4D7B-9A46-A3DADFBD059A}" name="IF_TEST"/>
+    <tableColumn id="2" xr3:uid="{88DB6496-DEF4-4497-8804-504D26FF979C}" name="F_NAME"/>
+    <tableColumn id="3" xr3:uid="{AA64C62A-3606-415C-B9BC-026BB1902DB7}" name="F_BEGIN"/>
+    <tableColumn id="4" xr3:uid="{3AA2F2BD-2EB5-4FB5-AD68-98B16D310D88}" name="F_END"/>
+    <tableColumn id="5" xr3:uid="{E3FAF3CE-2841-49CA-9800-2E22C0AC9212}" name="UPDATE"/>
+    <tableColumn id="6" xr3:uid="{7E6B0D53-52FD-4D67-8919-8334A246948B}" name="DESCRIP"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,276 +540,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41278</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44582</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="2">
+        <v>41278</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" s="2">
+        <v>41278</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C5" s="2">
+        <v>41278</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42373</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44578</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44586</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2">
+        <v>42373</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44578</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44588</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2">
+        <v>42373</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44578</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2">
+        <v>42373</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44578</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44602</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2">
+        <v>42373</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44578</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44602</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" s="2">
+        <v>42373</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44578</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2">
+        <v>42373</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44578</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" s="2">
+        <v>40186</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44600</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" s="2">
+        <v>40186</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44600</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E19" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E28" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E29" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
+      <c r="C30" s="2">
+        <v>42738</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E30" s="3">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42373</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44578</v>
+      </c>
+      <c r="E31" s="3">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42373</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44578</v>
+      </c>
+      <c r="E32" s="3">
+        <v>44606</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/factor_backtest/factors_tested.xlsx
+++ b/factor_backtest/factors_tested.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\factor_backtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F3BE34-42CB-4D34-B2EF-478CDD1BE4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E766F4F5-F5D9-4FF6-8E28-256C20192473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1836" yWindow="696" windowWidth="11484" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>pe_residual</t>
   </si>
@@ -172,6 +180,143 @@
   <si>
     <t>first_report_dur3_up_open</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_i5_50car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_80car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_100car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_60car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_40car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_20car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>instnum&lt;5, CAR_10 last 100% of the day, no max up, duration 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_i5_100CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_80CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_60CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_40CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_20CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_100X-4_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_80X-4_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_60X-4_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_40X-4_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_20X-4_0up_dur3</t>
+  </si>
+  <si>
+    <t>3 * s['CAR_120'] - 4 * s['CAR_60'] + 5 * s['CAR_20'] - 11 * s['CAR_3']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_CAR_3_rank_dur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日内对CAR_3排名，PIVOT，FFILL 2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_CAR_10_rank_dur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日内对CAR_10排名，PIVOT，FFILL 2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_i5_D100CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_D80CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_D60CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_D40CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_D20CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>instnum&lt;5, CAR_10 first 100% of the day, no max up, duration 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_CAR_3_rank3_dur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR_3 PIVOT，FFILL 2天，日内排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_CAR_10_rank3_dur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_i5_G100CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_G80CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_G60CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_G40CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_G20CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>CAR_3 排80%~100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_i5_R100CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_R80CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_R60CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_R40CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_R20CAR_3_0up_dur3</t>
   </si>
 </sst>
 </file>
@@ -540,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1124,6 +1269,622 @@
         <v>44606</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D33" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E33" s="3">
+        <v>44607</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D34" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E34" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D35" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E35" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D36" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D37" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E37" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D38" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D39" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E39" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D40" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E40" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D41" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D42" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E42" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D43" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E43" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D44" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E44" s="3">
+        <v>44607</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D45" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E45" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D46" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E46" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D47" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E47" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D48" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D49" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E49" s="3">
+        <v>44607</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D50" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E50" s="3">
+        <v>44607</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D51" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E51" s="3">
+        <v>44607</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D52" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D53" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E53" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D54" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D55" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E55" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D56" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E56" s="3">
+        <v>44607</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D57" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D58" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E58" s="3">
+        <v>44607</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D59" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D60" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D61" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E61" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D62" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E62" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D63" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E63" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D64" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E64" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D65" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E65" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D66" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D67" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E67" s="3">
+        <v>44607</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/factor_backtest/factors_tested.xlsx
+++ b/factor_backtest/factors_tested.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\factor_backtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E766F4F5-F5D9-4FF6-8E28-256C20192473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF29780-8F37-4712-9930-2CCE5ECFF954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1836" yWindow="696" windowWidth="11484" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>pe_residual</t>
   </si>
@@ -175,148 +175,198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>first_report_dur3_up_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_i5_50car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_80car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_100car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_60car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_40car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_20car10_0up_dur3</t>
+  </si>
+  <si>
+    <t>instnum&lt;5, CAR_10 last 100% of the day, no max up, duration 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_i5_80CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_60CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_40CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_20CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_100X-4_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_80X-4_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_60X-4_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_40X-4_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_20X-4_0up_dur3</t>
+  </si>
+  <si>
+    <t>3 * s['CAR_120'] - 4 * s['CAR_60'] + 5 * s['CAR_20'] - 11 * s['CAR_3']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_CAR_3_rank_dur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日内对CAR_3排名，PIVOT，FFILL 2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_CAR_10_rank_dur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日内对CAR_10排名，PIVOT，FFILL 2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_i5_D100CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_D80CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_D60CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_D40CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_D20CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>instnum&lt;5, CAR_10 first 100% of the day, no max up, duration 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_CAR_3_rank3_dur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR_3 PIVOT，FFILL 2天，日内排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_CAR_10_rank3_dur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_i5_G100CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_G80CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_G60CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_G40CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_G20CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>CAR_3 排80%~100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_i5_R100CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_R80CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_R60CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_R40CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_i5_R20CAR_3_0up_dur3</t>
+  </si>
+  <si>
+    <t>first_report_l50car3</t>
+  </si>
+  <si>
+    <t>first_report_h50car3</t>
+  </si>
+  <si>
+    <t>first_report_baseline</t>
+  </si>
+  <si>
     <t>first_report_dur3_up</t>
-  </si>
-  <si>
-    <t>first_report_dur3_up_open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_report_i5_50car10_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_80car10_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_100car10_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_60car10_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_40car10_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_20car10_0up_dur3</t>
-  </si>
-  <si>
-    <t>instnum&lt;5, CAR_10 last 100% of the day, no max up, duration 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>first_report_i5_100CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_80CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_60CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_40CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_20CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_100X-4_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_80X-4_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_60X-4_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_40X-4_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_20X-4_0up_dur3</t>
-  </si>
-  <si>
-    <t>3 * s['CAR_120'] - 4 * s['CAR_60'] + 5 * s['CAR_20'] - 11 * s['CAR_3']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_report_CAR_3_rank_dur3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日内对CAR_3排名，PIVOT，FFILL 2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_report_CAR_10_rank_dur3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日内对CAR_10排名，PIVOT，FFILL 2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_report_i5_D100CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_D80CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_D60CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_D40CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_D20CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>instnum&lt;5, CAR_10 first 100% of the day, no max up, duration 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_report_CAR_3_rank3_dur3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAR_3 PIVOT，FFILL 2天，日内排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_report_CAR_10_rank3_dur3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_report_i5_G100CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_G80CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_G60CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_G40CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_G20CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>CAR_3 排80%~100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first_report_i5_R100CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_R80CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_R60CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_R40CAR_3_0up_dur3</t>
-  </si>
-  <si>
-    <t>first_report_i5_R20CAR_3_0up_dur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_report_baseline_dur3</t>
+  </si>
+  <si>
+    <t>first_report_l50CAR_3_dur3</t>
+  </si>
+  <si>
+    <t>first_report_h50CAR_3_3</t>
+  </si>
+  <si>
+    <t>first_report_l33car3</t>
+  </si>
+  <si>
+    <t>first_report_m33car3</t>
+  </si>
+  <si>
+    <t>first_report_h33car3</t>
+  </si>
+  <si>
+    <t>first_report_50_car3</t>
+  </si>
+  <si>
+    <t>first_report_51_car3</t>
+  </si>
+  <si>
+    <t>first_report_52_car3</t>
+  </si>
+  <si>
+    <t>first_report_53_car3</t>
+  </si>
+  <si>
+    <t>first_report_54_car3</t>
+  </si>
+  <si>
+    <t>first_report_200_AR0_dur3</t>
+  </si>
+  <si>
+    <t>first_report_201_AR0_dur3</t>
   </si>
 </sst>
 </file>
@@ -685,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:E67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2">
         <v>42373</v>
@@ -1257,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
         <v>42373</v>
@@ -1274,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3">
         <v>42374</v>
@@ -1286,7 +1336,7 @@
         <v>44607</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3">
         <v>42374</v>
@@ -1311,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="3">
         <v>42374</v>
@@ -1328,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3">
         <v>42374</v>
@@ -1345,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="3">
         <v>42374</v>
@@ -1362,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3">
         <v>42374</v>
@@ -1379,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C39" s="3">
         <v>42374</v>
@@ -1396,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3">
         <v>42374</v>
@@ -1413,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3">
         <v>42374</v>
@@ -1430,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" s="3">
         <v>42374</v>
@@ -1447,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="3">
         <v>42374</v>
@@ -1464,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C44" s="3">
         <v>42374</v>
@@ -1476,7 +1526,7 @@
         <v>44607</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3">
         <v>42374</v>
@@ -1501,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="3">
         <v>42374</v>
@@ -1518,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3">
         <v>42374</v>
@@ -1535,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="3">
         <v>42374</v>
@@ -1552,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="3">
         <v>42374</v>
@@ -1564,7 +1614,7 @@
         <v>44607</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1572,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3">
         <v>42374</v>
@@ -1584,7 +1634,7 @@
         <v>44607</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="3">
         <v>42374</v>
@@ -1604,7 +1654,7 @@
         <v>44607</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="3">
         <v>42374</v>
@@ -1629,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" s="3">
         <v>42374</v>
@@ -1646,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" s="3">
         <v>42374</v>
@@ -1663,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="3">
         <v>42374</v>
@@ -1680,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3">
         <v>42374</v>
@@ -1692,7 +1742,7 @@
         <v>44607</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="3">
         <v>42374</v>
@@ -1717,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="3">
         <v>42374</v>
@@ -1729,7 +1779,7 @@
         <v>44607</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="3">
         <v>42374</v>
@@ -1754,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="3">
         <v>42374</v>
@@ -1771,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="3">
         <v>42374</v>
@@ -1788,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="3">
         <v>42374</v>
@@ -1802,10 +1852,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="3">
         <v>42374</v>
@@ -1819,10 +1869,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="3">
         <v>42374</v>
@@ -1836,10 +1886,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="3">
         <v>42374</v>
@@ -1853,10 +1903,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="3">
         <v>42374</v>
@@ -1870,19 +1920,308 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D67" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E67" s="3">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D68" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E68" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D69" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E69" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D70" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E70" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D71" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E71" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D72" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E72" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D73" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E73" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D74" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E74" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D75" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E75" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D76" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E76" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D77" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E77" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D78" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E78" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D79" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E79" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D80" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D81" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D82" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E82" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>1</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="3">
-        <v>42374</v>
-      </c>
-      <c r="D67" s="3">
-        <v>44561</v>
-      </c>
-      <c r="E67" s="3">
-        <v>44607</v>
+      <c r="B83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D83" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E83" s="3">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="3">
+        <v>42374</v>
+      </c>
+      <c r="D84" s="3">
+        <v>44561</v>
+      </c>
+      <c r="E84" s="3">
+        <v>44608</v>
       </c>
     </row>
   </sheetData>

--- a/factor_backtest/factors_tested.xlsx
+++ b/factor_backtest/factors_tested.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\factor_backtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winston/Documents/我的坚果云/XJIntern/PyCharmProject/factor_backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF29780-8F37-4712-9930-2CCE5ECFF954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB260B-F21A-854D-9D86-7DFCCE51E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1836" yWindow="696" windowWidth="11484" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="700" windowWidth="20720" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,7 +468,7 @@
     <tableColumn id="5" xr3:uid="{E3FAF3CE-2841-49CA-9800-2E22C0AC9212}" name="UPDATE"/>
     <tableColumn id="6" xr3:uid="{7E6B0D53-52FD-4D67-8919-8334A246948B}" name="DESCRIP"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -737,21 +737,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84:E84"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -771,7 +771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -791,7 +791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -825,7 +825,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -842,7 +842,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -882,7 +882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -899,7 +899,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -939,7 +939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -956,7 +956,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -973,7 +973,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -993,7 +993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>1</v>
       </c>

--- a/factor_backtest/factors_tested.xlsx
+++ b/factor_backtest/factors_tested.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\factor_backtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7256BFBA-EE8B-4367-9C1A-C3AFC89CFDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A6D71-C9C3-433A-97F2-D5078C1E27EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="346">
   <si>
     <t>IF_TEST</t>
   </si>
@@ -1298,6 +1298,14 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor_FRtn5D(0.0,3.0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1686,21 +1694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:F246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E246" sqref="E246"/>
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1740,7 +1748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1800,7 +1808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +1828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1940,7 +1948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1980,7 +1988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -2000,7 +2008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2040,7 +2048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +2068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2080,7 +2088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +2208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -2240,7 +2248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2260,7 +2268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -2280,7 +2288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -2360,7 +2368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2380,7 +2388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -2400,7 +2408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -2420,7 +2428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -2480,7 +2488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -2500,7 +2508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +2528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -2560,7 +2568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +2608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2620,7 +2628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2660,7 +2668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -2680,7 +2688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -2700,7 +2708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -2720,7 +2728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -2740,7 +2748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -2760,7 +2768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -2800,7 +2808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -2820,7 +2828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
@@ -2840,7 +2848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -2860,7 +2868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
@@ -2900,7 +2908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -2920,7 +2928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -2940,7 +2948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -2960,7 +2968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -2980,7 +2988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -3000,7 +3008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
@@ -3020,7 +3028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -3060,7 +3068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
@@ -3080,7 +3088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -3100,7 +3108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
@@ -3120,7 +3128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -3140,7 +3148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>5</v>
       </c>
@@ -3160,7 +3168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -3180,7 +3188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>5</v>
       </c>
@@ -3200,7 +3208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>5</v>
       </c>
@@ -3220,7 +3228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
@@ -3240,7 +3248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>5</v>
       </c>
@@ -3260,7 +3268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
@@ -3280,7 +3288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>5</v>
       </c>
@@ -3300,7 +3308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>5</v>
       </c>
@@ -3320,7 +3328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
@@ -3340,7 +3348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
@@ -3360,7 +3368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -3380,7 +3388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
@@ -3420,7 +3428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>5</v>
       </c>
@@ -3440,7 +3448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
@@ -3480,7 +3488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
@@ -3500,7 +3508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>5</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
@@ -3540,7 +3548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
@@ -3560,7 +3568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -3580,7 +3588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
@@ -3600,7 +3608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -3640,7 +3648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
@@ -3660,7 +3668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
@@ -3680,7 +3688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>5</v>
       </c>
@@ -3700,7 +3708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
@@ -3720,7 +3728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -3740,7 +3748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>5</v>
       </c>
@@ -3760,7 +3768,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
@@ -3780,7 +3788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
@@ -3800,7 +3808,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>5</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>5</v>
       </c>
@@ -3840,7 +3848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +3868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>5</v>
       </c>
@@ -3880,7 +3888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>5</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
@@ -3920,7 +3928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>5</v>
       </c>
@@ -3940,7 +3948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
@@ -3980,7 +3988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
@@ -4020,7 +4028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>5</v>
       </c>
@@ -4040,7 +4048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>5</v>
       </c>
@@ -4060,7 +4068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -4080,7 +4088,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>5</v>
       </c>
@@ -4100,7 +4108,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
@@ -4120,7 +4128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>5</v>
       </c>
@@ -4140,7 +4148,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>5</v>
       </c>
@@ -4160,7 +4168,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -4180,7 +4188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
@@ -4200,7 +4208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>5</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
@@ -4240,7 +4248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>5</v>
       </c>
@@ -4260,7 +4268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>5</v>
       </c>
@@ -4280,7 +4288,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>5</v>
       </c>
@@ -4300,7 +4308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>5</v>
       </c>
@@ -4320,7 +4328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>5</v>
       </c>
@@ -4340,7 +4348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>5</v>
       </c>
@@ -4360,7 +4368,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>5</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
@@ -4400,7 +4408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>5</v>
       </c>
@@ -4420,7 +4428,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>5</v>
       </c>
@@ -4440,7 +4448,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>5</v>
       </c>
@@ -4460,7 +4468,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
@@ -4480,7 +4488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>5</v>
       </c>
@@ -4500,7 +4508,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +4528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>5</v>
       </c>
@@ -4540,7 +4548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>5</v>
       </c>
@@ -4560,7 +4568,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>5</v>
       </c>
@@ -4580,7 +4588,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>5</v>
       </c>
@@ -4600,7 +4608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
@@ -4620,7 +4628,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>5</v>
       </c>
@@ -4640,7 +4648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>5</v>
       </c>
@@ -4660,7 +4668,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>5</v>
       </c>
@@ -4680,7 +4688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>5</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>44616</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -4714,7 +4722,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>5</v>
       </c>
@@ -4731,7 +4739,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>5</v>
       </c>
@@ -4748,7 +4756,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>5</v>
       </c>
@@ -4765,7 +4773,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>5</v>
       </c>
@@ -4782,7 +4790,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>5</v>
       </c>
@@ -4799,7 +4807,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>5</v>
       </c>
@@ -4816,7 +4824,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>5</v>
       </c>
@@ -4833,7 +4841,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>5</v>
       </c>
@@ -4850,7 +4858,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>5</v>
       </c>
@@ -4867,7 +4875,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>5</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>5</v>
       </c>
@@ -4901,7 +4909,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>5</v>
       </c>
@@ -4918,7 +4926,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>5</v>
       </c>
@@ -4935,7 +4943,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>5</v>
       </c>
@@ -4952,7 +4960,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>5</v>
       </c>
@@ -4969,7 +4977,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>5</v>
       </c>
@@ -4986,7 +4994,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>5</v>
       </c>
@@ -5003,7 +5011,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>5</v>
       </c>
@@ -5020,7 +5028,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>5</v>
       </c>
@@ -5037,7 +5045,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>5</v>
       </c>
@@ -5054,7 +5062,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>5</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>5</v>
       </c>
@@ -5088,7 +5096,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>5</v>
       </c>
@@ -5105,7 +5113,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>5</v>
       </c>
@@ -5122,7 +5130,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>5</v>
       </c>
@@ -5139,7 +5147,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>5</v>
       </c>
@@ -5156,7 +5164,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>5</v>
       </c>
@@ -5173,7 +5181,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>5</v>
       </c>
@@ -5190,7 +5198,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>5</v>
       </c>
@@ -5207,7 +5215,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>5</v>
       </c>
@@ -5224,7 +5232,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>5</v>
       </c>
@@ -5241,7 +5249,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>5</v>
       </c>
@@ -5258,7 +5266,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>5</v>
       </c>
@@ -5275,7 +5283,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>5</v>
       </c>
@@ -5292,7 +5300,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>5</v>
       </c>
@@ -5309,7 +5317,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>5</v>
       </c>
@@ -5326,7 +5334,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>5</v>
       </c>
@@ -5343,7 +5351,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>5</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>5</v>
       </c>
@@ -5377,7 +5385,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>5</v>
       </c>
@@ -5394,7 +5402,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>5</v>
       </c>
@@ -5411,7 +5419,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>5</v>
       </c>
@@ -5428,7 +5436,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>5</v>
       </c>
@@ -5445,7 +5453,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>5</v>
       </c>
@@ -5462,7 +5470,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>5</v>
       </c>
@@ -5479,7 +5487,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>5</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>5</v>
       </c>
@@ -5513,7 +5521,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>5</v>
       </c>
@@ -5530,7 +5538,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>5</v>
       </c>
@@ -5547,7 +5555,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>5</v>
       </c>
@@ -5564,7 +5572,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>5</v>
       </c>
@@ -5581,7 +5589,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>5</v>
       </c>
@@ -5598,7 +5606,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>5</v>
       </c>
@@ -5615,7 +5623,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>5</v>
       </c>
@@ -5632,7 +5640,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>5</v>
       </c>
@@ -5649,7 +5657,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>5</v>
       </c>
@@ -5666,7 +5674,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>5</v>
       </c>
@@ -5683,7 +5691,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>5</v>
       </c>
@@ -5700,7 +5708,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>5</v>
       </c>
@@ -5717,7 +5725,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>5</v>
       </c>
@@ -5734,7 +5742,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>5</v>
       </c>
@@ -5751,7 +5759,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>5</v>
       </c>
@@ -5768,7 +5776,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>5</v>
       </c>
@@ -5785,7 +5793,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>5</v>
       </c>
@@ -5802,7 +5810,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>5</v>
       </c>
@@ -5819,7 +5827,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>5</v>
       </c>
@@ -5836,7 +5844,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>5</v>
       </c>
@@ -5853,7 +5861,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>5</v>
       </c>
@@ -5870,7 +5878,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>5</v>
       </c>
@@ -5887,7 +5895,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>5</v>
       </c>
@@ -5904,7 +5912,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>5</v>
       </c>
@@ -5921,7 +5929,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>5</v>
       </c>
@@ -5938,7 +5946,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>5</v>
       </c>
@@ -5955,7 +5963,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>5</v>
       </c>
@@ -5972,7 +5980,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>5</v>
       </c>
@@ -5989,7 +5997,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>5</v>
       </c>
@@ -6006,7 +6014,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>5</v>
       </c>
@@ -6023,7 +6031,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>5</v>
       </c>
@@ -6040,7 +6048,7 @@
         <v>44623</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>5</v>
       </c>
@@ -6057,7 +6065,7 @@
         <v>44623</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>5</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>5</v>
       </c>
@@ -6091,7 +6099,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>5</v>
       </c>
@@ -6108,7 +6116,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>5</v>
       </c>
@@ -6125,7 +6133,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>5</v>
       </c>
@@ -6142,7 +6150,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>5</v>
       </c>
@@ -6159,7 +6167,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>5</v>
       </c>
@@ -6176,7 +6184,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>5</v>
       </c>
@@ -6193,7 +6201,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>5</v>
       </c>
@@ -6210,7 +6218,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>5</v>
       </c>
@@ -6227,7 +6235,7 @@
         <v>44645</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>5</v>
       </c>
@@ -6244,7 +6252,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>5</v>
       </c>
@@ -6261,7 +6269,7 @@
         <v>44645</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>5</v>
       </c>
@@ -6278,7 +6286,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>5</v>
       </c>
@@ -6295,9 +6303,9 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B245" t="s">
         <v>339</v>
@@ -6309,6 +6317,23 @@
         <v>44672</v>
       </c>
       <c r="E245" s="1">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B246" t="s">
+        <v>345</v>
+      </c>
+      <c r="C246" s="1">
+        <v>42401</v>
+      </c>
+      <c r="D246" s="1">
+        <v>44651</v>
+      </c>
+      <c r="E246" s="1">
         <v>44673</v>
       </c>
     </row>
